--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adham\Desktop\Ceos\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="72">
   <si>
     <t>الرئيس التنفيذي</t>
   </si>
@@ -264,12 +264,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +608,7 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -626,7 +635,7 @@
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -674,7 +683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1041,6 +1050,1810 @@
       </c>
       <c r="M11" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <v>12</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="1">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1">
+        <v>12</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="1">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1">
+        <v>6</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="1">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>6</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="1">
+        <v>6</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="1">
+        <v>6</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>6</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="1">
+        <v>7</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="1">
+        <v>6</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
